--- a/data/trans_orig/IP2508_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2508_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383C10EF-20AC-47E5-8E60-3B071CE46D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9004880-32DE-4D62-B5DA-94558B41597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A3D14E72-E593-4580-84CE-32FEC379DA46}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{68AE8248-A263-43FA-AEEC-ED83249BC259}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1 hora</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
     <t>De 1 hora a 2 horas</t>
   </si>
   <si>
@@ -131,36 +161,6 @@
     <t>11,72%</t>
   </si>
   <si>
-    <t>Menos de 1 hora</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
     <t>Más de 3 horas</t>
   </si>
   <si>
@@ -194,9 +194,141 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
     <t>41,2%</t>
   </si>
   <si>
@@ -248,33 +380,6 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
     <t>12,36%</t>
   </si>
   <si>
@@ -302,109 +407,31 @@
     <t>14,69%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>47,9%</t>
@@ -461,33 +488,6 @@
     <t>32,18%</t>
   </si>
   <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
     <t>7,77%</t>
   </si>
   <si>
@@ -518,6 +518,33 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2012 (Tasa respuesta: 89,71%)</t>
   </si>
   <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
     <t>48,69%</t>
   </si>
   <si>
@@ -572,33 +599,6 @@
     <t>17,14%</t>
   </si>
   <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
     <t>5,95%</t>
   </si>
   <si>
@@ -623,6 +623,132 @@
     <t>6,96%</t>
   </si>
   <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
     <t>51,11%</t>
   </si>
   <si>
@@ -677,30 +803,6 @@
     <t>35,91%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
     <t>11,7%</t>
   </si>
   <si>
@@ -728,106 +830,31 @@
     <t>14,07%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>50,1%</t>
@@ -881,33 +908,6 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
     <t>8,89%</t>
   </si>
   <si>
@@ -938,6 +938,30 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2015 (Tasa respuesta: 89,13%)</t>
   </si>
   <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
     <t>49,99%</t>
   </si>
   <si>
@@ -992,30 +1016,6 @@
     <t>27,19%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
     <t>6,02%</t>
   </si>
   <si>
@@ -1040,6 +1040,132 @@
     <t>8,02%</t>
   </si>
   <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
     <t>38,27%</t>
   </si>
   <si>
@@ -1094,33 +1220,6 @@
     <t>41,65%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
     <t>12,86%</t>
   </si>
   <si>
@@ -1148,103 +1247,31 @@
     <t>17,24%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>42,15%</t>
@@ -1292,33 +1319,6 @@
     <t>36,35%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
     <t>10,57%</t>
   </si>
   <si>
@@ -1349,6 +1349,33 @@
     <t>Menores según el número de horas que emprean en ver la televisión en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
     <t>20,89%</t>
   </si>
   <si>
@@ -1403,33 +1430,6 @@
     <t>5,41%</t>
   </si>
   <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
     <t>1,65%</t>
   </si>
   <si>
@@ -1454,6 +1454,123 @@
     <t>3,86%</t>
   </si>
   <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
     <t>48,18%</t>
   </si>
   <si>
@@ -1505,33 +1622,6 @@
     <t>25,37%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
     <t>13,59%</t>
   </si>
   <si>
@@ -1556,94 +1646,28 @@
     <t>17,28%</t>
   </si>
   <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
   </si>
   <si>
     <t>42,34%</t>
@@ -1689,30 +1713,6 @@
   </si>
   <si>
     <t>18,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
   </si>
   <si>
     <t>9,37%</t>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB32BD43-158D-47AF-A87C-8EC70880FD6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90203266-F8A3-4C63-B773-C59D9DA3B7B5}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2240,10 +2240,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7">
-        <v>78217</v>
+        <v>57143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2255,10 +2255,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="I4" s="7">
-        <v>85605</v>
+        <v>51455</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2270,10 +2270,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="N4" s="7">
-        <v>163822</v>
+        <v>108598</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2291,10 +2291,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>13526</v>
+        <v>78217</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2306,10 +2306,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I5" s="7">
-        <v>13948</v>
+        <v>85605</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2321,10 +2321,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>27475</v>
+        <v>163822</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2342,10 +2342,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7">
-        <v>57143</v>
+        <v>13526</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2357,10 +2357,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>51455</v>
+        <v>13948</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2372,10 +2372,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7">
-        <v>108598</v>
+        <v>27475</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2497,10 +2497,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="D9" s="7">
-        <v>111649</v>
+        <v>15517</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2512,10 +2512,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>107424</v>
+        <v>18856</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -2524,22 +2524,22 @@
         <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="7">
+        <v>52</v>
+      </c>
+      <c r="N9" s="7">
+        <v>34373</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>330</v>
-      </c>
-      <c r="N9" s="7">
-        <v>219072</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,40 +2548,40 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7">
-        <v>110720</v>
+        <v>112844</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>168</v>
+      </c>
+      <c r="I10" s="7">
+        <v>112225</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>157</v>
-      </c>
-      <c r="I10" s="7">
-        <v>106213</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="M10" s="7">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="N10" s="7">
-        <v>216933</v>
+        <v>225069</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2599,10 +2599,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D11" s="7">
-        <v>15109</v>
+        <v>68109</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -2614,10 +2614,10 @@
         <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7">
-        <v>15120</v>
+        <v>63352</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -2629,10 +2629,10 @@
         <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="N11" s="7">
-        <v>30229</v>
+        <v>131461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -2650,10 +2650,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>33490</v>
+        <v>12147</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -2665,10 +2665,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I12" s="7">
-        <v>29363</v>
+        <v>9022</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -2680,19 +2680,19 @@
         <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>62853</v>
+        <v>21169</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,10 +2701,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="D13" s="7">
-        <v>270968</v>
+        <v>208616</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2716,10 +2716,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="I13" s="7">
-        <v>258120</v>
+        <v>203456</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2731,10 +2731,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>789</v>
+        <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>529087</v>
+        <v>412071</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2748,55 +2748,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>112844</v>
+        <v>15109</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>22</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15120</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>168</v>
-      </c>
-      <c r="I14" s="7">
-        <v>112225</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>45</v>
+      </c>
+      <c r="N14" s="7">
+        <v>30229</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>340</v>
-      </c>
-      <c r="N14" s="7">
-        <v>225069</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,49 +2805,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>168</v>
+      </c>
+      <c r="D15" s="7">
+        <v>111649</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="7">
+        <v>162</v>
+      </c>
+      <c r="I15" s="7">
+        <v>107424</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="7">
+        <v>330</v>
+      </c>
+      <c r="N15" s="7">
+        <v>219072</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="7">
-        <v>68109</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="7">
-        <v>92</v>
-      </c>
-      <c r="I15" s="7">
-        <v>63352</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="7">
-        <v>194</v>
-      </c>
-      <c r="N15" s="7">
-        <v>131461</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,49 +2856,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7">
-        <v>15517</v>
+        <v>110720</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>157</v>
+      </c>
+      <c r="I16" s="7">
+        <v>106213</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>28</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18856</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="7">
+        <v>323</v>
+      </c>
+      <c r="N16" s="7">
+        <v>216933</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="7">
-        <v>52</v>
-      </c>
-      <c r="N16" s="7">
-        <v>34373</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,43 +2907,43 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7">
-        <v>12147</v>
+        <v>33490</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7">
+        <v>29363</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="7">
-        <v>13</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9022</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>91</v>
+      </c>
+      <c r="N17" s="7">
+        <v>62853</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="M17" s="7">
-        <v>31</v>
-      </c>
-      <c r="N17" s="7">
-        <v>21169</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>120</v>
@@ -2958,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="D18" s="7">
-        <v>208616</v>
+        <v>270968</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2973,10 +2973,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="I18" s="7">
-        <v>203456</v>
+        <v>258120</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2988,10 +2988,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>617</v>
+        <v>789</v>
       </c>
       <c r="N18" s="7">
-        <v>412071</v>
+        <v>529087</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3011,10 +3011,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>302709</v>
+        <v>87769</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>122</v>
@@ -3026,10 +3026,10 @@
         <v>124</v>
       </c>
       <c r="H19" s="7">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="I19" s="7">
-        <v>305253</v>
+        <v>85432</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>125</v>
@@ -3041,10 +3041,10 @@
         <v>127</v>
       </c>
       <c r="M19" s="7">
-        <v>915</v>
+        <v>262</v>
       </c>
       <c r="N19" s="7">
-        <v>607962</v>
+        <v>173201</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>128</v>
@@ -3062,10 +3062,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="D20" s="7">
-        <v>192355</v>
+        <v>302709</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>131</v>
@@ -3077,10 +3077,10 @@
         <v>133</v>
       </c>
       <c r="H20" s="7">
-        <v>271</v>
+        <v>459</v>
       </c>
       <c r="I20" s="7">
-        <v>183514</v>
+        <v>305253</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>134</v>
@@ -3092,10 +3092,10 @@
         <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>559</v>
+        <v>915</v>
       </c>
       <c r="N20" s="7">
-        <v>375869</v>
+        <v>607962</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -3113,10 +3113,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="D21" s="7">
-        <v>87769</v>
+        <v>192355</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>140</v>
@@ -3128,10 +3128,10 @@
         <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>128</v>
+        <v>271</v>
       </c>
       <c r="I21" s="7">
-        <v>85432</v>
+        <v>183514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>143</v>
@@ -3143,10 +3143,10 @@
         <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>262</v>
+        <v>559</v>
       </c>
       <c r="N21" s="7">
-        <v>173201</v>
+        <v>375869</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>146</v>
@@ -3276,7 +3276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C94301-3E4E-4408-8180-329C7C3F478B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7D84B-2B95-41E1-8C2C-32C0093424EA}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3394,10 +3394,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>86942</v>
+        <v>54576</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>159</v>
@@ -3409,10 +3409,10 @@
         <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>73298</v>
+        <v>60170</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>162</v>
@@ -3424,10 +3424,10 @@
         <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="N4" s="7">
-        <v>160241</v>
+        <v>114746</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>165</v>
@@ -3445,10 +3445,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>26428</v>
+        <v>86942</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>168</v>
@@ -3460,10 +3460,10 @@
         <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="I5" s="7">
-        <v>20108</v>
+        <v>73298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>171</v>
@@ -3475,10 +3475,10 @@
         <v>173</v>
       </c>
       <c r="M5" s="7">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="N5" s="7">
-        <v>46536</v>
+        <v>160241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>174</v>
@@ -3496,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>54576</v>
+        <v>26428</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>177</v>
@@ -3511,10 +3511,10 @@
         <v>179</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>60170</v>
+        <v>20108</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>180</v>
@@ -3526,10 +3526,10 @@
         <v>182</v>
       </c>
       <c r="M6" s="7">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>114746</v>
+        <v>46536</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>183</v>
@@ -3583,7 +3583,7 @@
         <v>14909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>192</v>
@@ -3651,10 +3651,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>135501</v>
+        <v>21046</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>194</v>
@@ -3663,37 +3663,37 @@
         <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="7">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7">
+        <v>23983</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="7">
-        <v>165</v>
-      </c>
-      <c r="I9" s="7">
-        <v>115336</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>63</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45029</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="M9" s="7">
-        <v>365</v>
-      </c>
-      <c r="N9" s="7">
-        <v>250837</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,49 +3702,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7">
-        <v>81632</v>
+        <v>119788</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>161</v>
+      </c>
+      <c r="I10" s="7">
+        <v>114854</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="7">
-        <v>121</v>
-      </c>
-      <c r="I10" s="7">
-        <v>86257</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>327</v>
+      </c>
+      <c r="N10" s="7">
+        <v>234642</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M10" s="7">
-        <v>243</v>
-      </c>
-      <c r="N10" s="7">
-        <v>167889</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,46 +3753,46 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>16960</v>
+        <v>79470</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>97</v>
+      </c>
+      <c r="I11" s="7">
+        <v>70013</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19963</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>206</v>
+      </c>
+      <c r="N11" s="7">
+        <v>149483</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M11" s="7">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7">
-        <v>36923</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>219</v>
@@ -3804,49 +3804,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>31017</v>
+        <v>19056</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14688</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29049</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>47</v>
+      </c>
+      <c r="N12" s="7">
+        <v>33744</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M12" s="7">
-        <v>87</v>
-      </c>
-      <c r="N12" s="7">
-        <v>60066</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,10 +3855,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>391</v>
+        <v>331</v>
       </c>
       <c r="D13" s="7">
-        <v>265110</v>
+        <v>239360</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -3870,10 +3870,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="I13" s="7">
-        <v>250606</v>
+        <v>223538</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3885,10 +3885,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>748</v>
+        <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>515715</v>
+        <v>462898</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -3902,55 +3902,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>119788</v>
+        <v>16960</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7">
+        <v>19963</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="7">
-        <v>161</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114854</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>53</v>
+      </c>
+      <c r="N14" s="7">
+        <v>36923</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M14" s="7">
-        <v>327</v>
-      </c>
-      <c r="N14" s="7">
-        <v>234642</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,49 +3959,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
+        <v>200</v>
       </c>
       <c r="D15" s="7">
-        <v>79470</v>
+        <v>135501</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>165</v>
+      </c>
+      <c r="I15" s="7">
+        <v>115336</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="7">
-        <v>97</v>
-      </c>
-      <c r="I15" s="7">
-        <v>70013</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>365</v>
+      </c>
+      <c r="N15" s="7">
+        <v>250837</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M15" s="7">
-        <v>206</v>
-      </c>
-      <c r="N15" s="7">
-        <v>149483</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,49 +4010,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>21046</v>
+        <v>81632</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>121</v>
+      </c>
+      <c r="I16" s="7">
+        <v>86257</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7">
-        <v>23983</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>243</v>
+      </c>
+      <c r="N16" s="7">
+        <v>167889</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45029</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,25 +4061,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>19056</v>
+        <v>31017</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H17" s="7">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>14688</v>
+        <v>29049</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>257</v>
@@ -4091,10 +4091,10 @@
         <v>259</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="N17" s="7">
-        <v>33744</v>
+        <v>60066</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>260</v>
@@ -4112,10 +4112,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>331</v>
+        <v>391</v>
       </c>
       <c r="D18" s="7">
-        <v>239360</v>
+        <v>265110</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4127,10 +4127,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="I18" s="7">
-        <v>223538</v>
+        <v>250606</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4142,10 +4142,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>643</v>
+        <v>748</v>
       </c>
       <c r="N18" s="7">
-        <v>462898</v>
+        <v>515715</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4165,10 +4165,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>492</v>
+        <v>129</v>
       </c>
       <c r="D19" s="7">
-        <v>342231</v>
+        <v>92582</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>263</v>
@@ -4180,10 +4180,10 @@
         <v>265</v>
       </c>
       <c r="H19" s="7">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>303489</v>
+        <v>104116</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>266</v>
@@ -4195,19 +4195,19 @@
         <v>268</v>
       </c>
       <c r="M19" s="7">
-        <v>930</v>
+        <v>282</v>
       </c>
       <c r="N19" s="7">
-        <v>645720</v>
+        <v>196698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,43 +4216,43 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>268</v>
+        <v>492</v>
       </c>
       <c r="D20" s="7">
-        <v>187530</v>
+        <v>342231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H20" s="7">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="I20" s="7">
-        <v>176379</v>
+        <v>303489</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M20" s="7">
-        <v>517</v>
+        <v>930</v>
       </c>
       <c r="N20" s="7">
-        <v>363909</v>
+        <v>645720</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>278</v>
@@ -4267,10 +4267,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="D21" s="7">
-        <v>92582</v>
+        <v>187530</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>280</v>
@@ -4282,10 +4282,10 @@
         <v>282</v>
       </c>
       <c r="H21" s="7">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="I21" s="7">
-        <v>104116</v>
+        <v>176379</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>283</v>
@@ -4297,10 +4297,10 @@
         <v>285</v>
       </c>
       <c r="M21" s="7">
-        <v>282</v>
+        <v>517</v>
       </c>
       <c r="N21" s="7">
-        <v>196698</v>
+        <v>363909</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>286</v>
@@ -4430,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB274569-EA6C-4747-8D33-0DFD23B47D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEAED53-5C91-4890-9CB5-8C43CB2B108A}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4548,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>80407</v>
+        <v>33238</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>58</v>
+      </c>
+      <c r="I4" s="7">
+        <v>36437</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H4" s="7">
-        <v>102</v>
-      </c>
-      <c r="I4" s="7">
-        <v>62465</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>109</v>
+      </c>
+      <c r="N4" s="7">
+        <v>69675</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="M4" s="7">
-        <v>223</v>
-      </c>
-      <c r="N4" s="7">
-        <v>142873</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D5" s="7">
-        <v>37510</v>
+        <v>80407</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>102</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62465</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H5" s="7">
-        <v>54</v>
-      </c>
-      <c r="I5" s="7">
-        <v>31867</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>223</v>
+      </c>
+      <c r="N5" s="7">
+        <v>142873</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="M5" s="7">
-        <v>111</v>
-      </c>
-      <c r="N5" s="7">
-        <v>69377</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,25 +4650,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>33238</v>
+        <v>37510</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>318</v>
       </c>
       <c r="H6" s="7">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>36437</v>
+        <v>31867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>319</v>
@@ -4680,10 +4680,10 @@
         <v>321</v>
       </c>
       <c r="M6" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7">
-        <v>69675</v>
+        <v>69377</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>322</v>
@@ -4740,7 +4740,7 @@
         <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>332</v>
@@ -4805,49 +4805,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>103701</v>
+        <v>27488</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>333</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>38</v>
+      </c>
+      <c r="I9" s="7">
+        <v>24744</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H9" s="7">
-        <v>131</v>
-      </c>
-      <c r="I9" s="7">
-        <v>94409</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>79</v>
+      </c>
+      <c r="N9" s="7">
+        <v>52232</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M9" s="7">
-        <v>271</v>
-      </c>
-      <c r="N9" s="7">
-        <v>198110</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,49 +4856,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>109644</v>
+        <v>100404</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>150</v>
+      </c>
+      <c r="I10" s="7">
+        <v>96166</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H10" s="7">
-        <v>131</v>
-      </c>
-      <c r="I10" s="7">
-        <v>93675</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>296</v>
+      </c>
+      <c r="N10" s="7">
+        <v>196570</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="M10" s="7">
-        <v>280</v>
-      </c>
-      <c r="N10" s="7">
-        <v>203318</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,49 +4907,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>22755</v>
+        <v>88549</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>126</v>
+      </c>
+      <c r="I11" s="7">
+        <v>82817</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>29118</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>254</v>
+      </c>
+      <c r="N11" s="7">
+        <v>171366</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="M11" s="7">
-        <v>72</v>
-      </c>
-      <c r="N11" s="7">
-        <v>51872</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,49 +4958,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>34837</v>
+        <v>26846</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7">
+        <v>21593</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H12" s="7">
-        <v>58</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42011</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>70</v>
+      </c>
+      <c r="N12" s="7">
+        <v>48439</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="M12" s="7">
-        <v>105</v>
-      </c>
-      <c r="N12" s="7">
-        <v>76848</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,10 +5009,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7">
-        <v>270937</v>
+        <v>243288</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -5024,10 +5024,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="I13" s="7">
-        <v>259212</v>
+        <v>225320</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -5039,10 +5039,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="N13" s="7">
-        <v>530149</v>
+        <v>468607</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -5056,55 +5056,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>100404</v>
+        <v>22755</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="7">
+        <v>41</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29118</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H14" s="7">
-        <v>150</v>
-      </c>
-      <c r="I14" s="7">
-        <v>96166</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>72</v>
+      </c>
+      <c r="N14" s="7">
+        <v>51872</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M14" s="7">
-        <v>296</v>
-      </c>
-      <c r="N14" s="7">
-        <v>196570</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,49 +5113,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D15" s="7">
-        <v>88549</v>
+        <v>103701</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>131</v>
+      </c>
+      <c r="I15" s="7">
+        <v>94409</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="7">
-        <v>126</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82817</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>271</v>
+      </c>
+      <c r="N15" s="7">
+        <v>198110</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="M15" s="7">
-        <v>254</v>
-      </c>
-      <c r="N15" s="7">
-        <v>171366</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,49 +5164,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="D16" s="7">
-        <v>27488</v>
+        <v>109644</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>93675</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24744</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>280</v>
+      </c>
+      <c r="N16" s="7">
+        <v>203318</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="M16" s="7">
-        <v>79</v>
-      </c>
-      <c r="N16" s="7">
-        <v>52232</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,28 +5215,28 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D17" s="7">
-        <v>26846</v>
+        <v>34837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>58</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42011</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21593</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>397</v>
@@ -5245,10 +5245,10 @@
         <v>398</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="N17" s="7">
-        <v>48439</v>
+        <v>76848</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>399</v>
@@ -5266,10 +5266,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="D18" s="7">
-        <v>243288</v>
+        <v>270937</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -5281,10 +5281,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="I18" s="7">
-        <v>225320</v>
+        <v>259212</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -5296,10 +5296,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="N18" s="7">
-        <v>468607</v>
+        <v>530149</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -5319,10 +5319,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>407</v>
+        <v>123</v>
       </c>
       <c r="D19" s="7">
-        <v>284512</v>
+        <v>83481</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>402</v>
@@ -5331,37 +5331,37 @@
         <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="I19" s="7">
-        <v>253039</v>
+        <v>90298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
-        <v>790</v>
+        <v>260</v>
       </c>
       <c r="N19" s="7">
-        <v>537552</v>
+        <v>173779</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,49 +5370,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D20" s="7">
-        <v>235703</v>
+        <v>284512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="I20" s="7">
-        <v>208359</v>
+        <v>253039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
-        <v>645</v>
+        <v>790</v>
       </c>
       <c r="N20" s="7">
-        <v>444061</v>
+        <v>537552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>416</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,25 +5421,25 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D21" s="7">
-        <v>83481</v>
+        <v>235703</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>419</v>
       </c>
       <c r="H21" s="7">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="I21" s="7">
-        <v>90298</v>
+        <v>208359</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>420</v>
@@ -5451,10 +5451,10 @@
         <v>422</v>
       </c>
       <c r="M21" s="7">
-        <v>260</v>
+        <v>645</v>
       </c>
       <c r="N21" s="7">
-        <v>173779</v>
+        <v>444061</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>423</v>
@@ -5584,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D91DE7-D231-492C-AB59-6746A9C002C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18F5250-40AD-4837-8E17-09DF34F3BF7C}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5702,10 +5702,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>23908</v>
+        <v>83183</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>436</v>
@@ -5717,10 +5717,10 @@
         <v>438</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="I4" s="7">
-        <v>22976</v>
+        <v>68466</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>439</v>
@@ -5732,10 +5732,10 @@
         <v>441</v>
       </c>
       <c r="M4" s="7">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="N4" s="7">
-        <v>46883</v>
+        <v>151648</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>442</v>
@@ -5753,10 +5753,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>5491</v>
+        <v>23908</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>445</v>
@@ -5768,10 +5768,10 @@
         <v>447</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>1525</v>
+        <v>22976</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>448</v>
@@ -5783,10 +5783,10 @@
         <v>450</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>7016</v>
+        <v>46883</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>451</v>
@@ -5804,10 +5804,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>83183</v>
+        <v>5491</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>454</v>
@@ -5819,10 +5819,10 @@
         <v>456</v>
       </c>
       <c r="H6" s="7">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>68466</v>
+        <v>1525</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>457</v>
@@ -5834,10 +5834,10 @@
         <v>459</v>
       </c>
       <c r="M6" s="7">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>151648</v>
+        <v>7016</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>460</v>
@@ -5959,10 +5959,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="D9" s="7">
-        <v>192594</v>
+        <v>75940</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>471</v>
@@ -5974,10 +5974,10 @@
         <v>473</v>
       </c>
       <c r="H9" s="7">
-        <v>215</v>
+        <v>112</v>
       </c>
       <c r="I9" s="7">
-        <v>157660</v>
+        <v>75124</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>474</v>
@@ -5986,19 +5986,19 @@
         <v>475</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M9" s="7">
+        <v>220</v>
+      </c>
+      <c r="N9" s="7">
+        <v>151065</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="M9" s="7">
-        <v>446</v>
-      </c>
-      <c r="N9" s="7">
-        <v>350254</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>478</v>
@@ -6010,10 +6010,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" s="7">
-        <v>88120</v>
+        <v>88056</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>479</v>
@@ -6025,34 +6025,34 @@
         <v>481</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>77272</v>
+        <v>90654</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>237</v>
+      </c>
+      <c r="N10" s="7">
+        <v>178710</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="M10" s="7">
-        <v>210</v>
-      </c>
-      <c r="N10" s="7">
-        <v>165391</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6061,49 +6061,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>64695</v>
+        <v>29879</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <v>24425</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="H11" s="7">
-        <v>92</v>
-      </c>
-      <c r="I11" s="7">
-        <v>69441</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>70</v>
+      </c>
+      <c r="N11" s="7">
+        <v>54304</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="M11" s="7">
-        <v>180</v>
-      </c>
-      <c r="N11" s="7">
-        <v>134136</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,49 +6112,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>54331</v>
+        <v>11180</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>6552</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="7">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17732</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="H12" s="7">
-        <v>48</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42191</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="M12" s="7">
-        <v>98</v>
-      </c>
-      <c r="N12" s="7">
-        <v>96522</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>503</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>504</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>477</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>399739</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6178,10 +6178,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>457</v>
+        <v>279</v>
       </c>
       <c r="I13" s="7">
-        <v>346564</v>
+        <v>196756</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6193,10 +6193,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>934</v>
+        <v>550</v>
       </c>
       <c r="N13" s="7">
-        <v>746303</v>
+        <v>401811</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6210,55 +6210,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D14" s="7">
-        <v>88056</v>
+        <v>64695</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H14" s="7">
+        <v>92</v>
+      </c>
+      <c r="I14" s="7">
+        <v>69441</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>180</v>
+      </c>
+      <c r="N14" s="7">
+        <v>134136</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H14" s="7">
-        <v>127</v>
-      </c>
-      <c r="I14" s="7">
-        <v>90654</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="M14" s="7">
-        <v>237</v>
-      </c>
-      <c r="N14" s="7">
-        <v>178710</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,49 +6267,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="D15" s="7">
-        <v>29879</v>
+        <v>192594</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>157660</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="H15" s="7">
-        <v>31</v>
-      </c>
-      <c r="I15" s="7">
-        <v>24425</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>446</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350254</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="M15" s="7">
-        <v>70</v>
-      </c>
-      <c r="N15" s="7">
-        <v>54304</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,46 +6321,46 @@
         <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>75940</v>
+        <v>88120</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>102</v>
+      </c>
+      <c r="I16" s="7">
+        <v>77272</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H16" s="7">
-        <v>112</v>
-      </c>
-      <c r="I16" s="7">
-        <v>75124</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>210</v>
+      </c>
+      <c r="N16" s="7">
+        <v>165391</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M16" s="7">
-        <v>220</v>
-      </c>
-      <c r="N16" s="7">
-        <v>151065</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,49 +6369,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>11180</v>
+        <v>54331</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>48</v>
+      </c>
+      <c r="I17" s="7">
+        <v>42191</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6552</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M17" s="7">
+        <v>98</v>
+      </c>
+      <c r="N17" s="7">
+        <v>96522</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M17" s="7">
-        <v>23</v>
-      </c>
-      <c r="N17" s="7">
-        <v>17732</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,10 +6420,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>399739</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6435,10 +6435,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>279</v>
+        <v>457</v>
       </c>
       <c r="I18" s="7">
-        <v>196756</v>
+        <v>346564</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6450,10 +6450,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>550</v>
+        <v>934</v>
       </c>
       <c r="N18" s="7">
-        <v>401811</v>
+        <v>746303</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6473,10 +6473,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="D19" s="7">
-        <v>304558</v>
+        <v>223818</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>535</v>
@@ -6488,10 +6488,10 @@
         <v>537</v>
       </c>
       <c r="H19" s="7">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="I19" s="7">
-        <v>271290</v>
+        <v>213031</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>538</v>
@@ -6503,13 +6503,13 @@
         <v>540</v>
       </c>
       <c r="M19" s="7">
-        <v>772</v>
+        <v>695</v>
       </c>
       <c r="N19" s="7">
-        <v>575847</v>
+        <v>436849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>541</v>
@@ -6524,49 +6524,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>156</v>
+        <v>388</v>
       </c>
       <c r="D20" s="7">
-        <v>123490</v>
+        <v>304558</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H20" s="7">
-        <v>136</v>
+        <v>384</v>
       </c>
       <c r="I20" s="7">
-        <v>103222</v>
+        <v>271290</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
-        <v>292</v>
+        <v>772</v>
       </c>
       <c r="N20" s="7">
-        <v>226712</v>
+        <v>575847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>354</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6575,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7">
-        <v>223818</v>
+        <v>123490</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>551</v>
@@ -6590,10 +6590,10 @@
         <v>552</v>
       </c>
       <c r="H21" s="7">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>213031</v>
+        <v>103222</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>553</v>
@@ -6605,16 +6605,16 @@
         <v>555</v>
       </c>
       <c r="M21" s="7">
-        <v>695</v>
+        <v>292</v>
       </c>
       <c r="N21" s="7">
-        <v>436849</v>
+        <v>226712</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>139</v>
+        <v>556</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>556</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>557</v>
@@ -6638,7 +6638,7 @@
         <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -6647,7 +6647,7 @@
         <v>50848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>559</v>
